--- a/trunk/InventoryApp/InventoryApp.View/Resources/EntradaValidacion.xlsx
+++ b/trunk/InventoryApp/InventoryApp.View/Resources/EntradaValidacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">DIRECCIÓN </t>
   </si>
@@ -63,12 +63,6 @@
     <t>N° DE SERIE</t>
   </si>
   <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPRESA: </t>
-  </si>
-  <si>
     <t>TEL: (55) 36-90-04-00</t>
   </si>
   <si>
@@ -79,6 +73,15 @@
   </si>
   <si>
     <t>TÉCNICO QUE RECIBE:</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>EMPRESA:</t>
   </si>
 </sst>
 </file>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AQ31"/>
+  <dimension ref="B2:AQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H23" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +819,7 @@
     <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="T5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH5" s="6"/>
     </row>
@@ -973,7 +976,7 @@
     <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="L11" s="26"/>
       <c r="M11" s="21"/>
@@ -1011,8 +1014,8 @@
     </row>
     <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
+      <c r="C13" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="21"/>
@@ -1046,12 +1049,15 @@
     </row>
     <row r="14" spans="2:43" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
+      <c r="C14" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="21"/>
@@ -1129,7 +1135,7 @@
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L19" s="26"/>
       <c r="M19" s="21"/>
@@ -1167,8 +1173,8 @@
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
+      <c r="C21" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="L21" s="26"/>
       <c r="M21" s="21"/>
@@ -1206,8 +1212,8 @@
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
+      <c r="C23" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="L23" s="26"/>
       <c r="M23" s="21"/>
@@ -1327,66 +1333,30 @@
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
       <c r="Z30" s="18"/>
       <c r="AA30" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="18"/>
       <c r="AE30" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF30" s="17"/>
       <c r="AG30" s="17"/>
       <c r="AH30" s="18"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-    </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
+      <c r="AI30" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="AE30:AH30"/>
-    <mergeCell ref="D30:Z30"/>
     <mergeCell ref="AA30:AD30"/>
     <mergeCell ref="C6:V6"/>
     <mergeCell ref="W8:AE8"/>
@@ -1399,6 +1369,8 @@
     <mergeCell ref="L21:AG21"/>
     <mergeCell ref="L23:AG23"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:V30"/>
+    <mergeCell ref="W30:Z30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
